--- a/casos de prueba.xlsx
+++ b/casos de prueba.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="2" r:id="rId1"/>
-    <sheet name="Casos fallidos" sheetId="4" r:id="rId2"/>
+    <sheet name="pruebas a casos fallidos" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="265">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -321,12 +321,6 @@
     <t>2. Agregar Lector</t>
   </si>
   <si>
-    <t>1: En el menú lateral seleccionar "Usuarios"
-2: Click en el botón "Lector"
-3: Click en el botón "Nuevo Lector"
-4: Ingresar un rut válido y correcto                                5: Ingresar un nombre válido                                         6: Ingresar Apellido Paterno válido                                 7: Ingresar Apellido Materno válido                                8: Ingresar un email válido y correcto                             9: Ingresar un teléfono válido                                       10: Ingresar una dirección válida</t>
-  </si>
-  <si>
     <t>Haber ingresado como administrador</t>
   </si>
   <si>
@@ -618,9 +612,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">3. </t>
-  </si>
-  <si>
     <t>4.</t>
   </si>
   <si>
@@ -628,6 +619,1420 @@
   </si>
   <si>
     <t>6.</t>
+  </si>
+  <si>
+    <t>3. Libros</t>
+  </si>
+  <si>
+    <t>Nuevo Libro</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Ingresar un libro con datos válidos y correctos</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema como administrador
+2: En el panel izquierdo hacer click en "Libros"
+3: Hacer click en el botón "Nuevo Libro"
+4: Ingresar un ISBN válido y correcto
+5: Ingresar el nombre del autor del libro
+6: Ingresar el año de publicación
+7: Ingresar el código Dewey del libro
+8: Ingresar el Título del libro
+9: Ingresar la edición del libro
+10: Hacer click en "Guardar"</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Click en el botón "Lector"
+3: Click en el botón "Nuevo Lector"
+4: Ingresar un rut válido y correcto
+5: Ingresar un nombre válido
+6: Ingresar Apellido Paterno válido                                 7: Ingresar Apellido Materno válido
+8: Ingresar un email válido y correcto
+9: Ingresar un teléfono no válido
+10: Ingresar una dirección válida
+11: Hacer click en el botón "Aceptar"</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Click en el botón "Lector"
+3: Click en el botón "Nuevo Lector"
+4: Ingresar un rut válido y correcto
+5: Ingresar un nombre válido
+6: Ingresar Apellido Paterno válido
+7: Ingresar Apellido Materno válido
+8: Ingresar un email no válido
+9: Ingresar un teléfono válido
+10: Ingresar una dirección válida
+11: Hacer click en el botón "Aceptar"</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Click en el botón "Lector"
+3: Click en el botón "Nuevo Lector"
+4: Ingresar un rut no válido
+5: Ingresar un nombre válido
+6: Ingresar Apellido Paterno válido
+7: Ingresar Apellido Materno válido
+8: Ingresar un email válido y correcto
+9: Ingresar un teléfono válido
+10: Ingresar una dirección válida
+11: Hacer click en el botón "Aceptar"</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Click en el botón "Lector"
+3: Click en el botón "Nuevo Lector"
+4: Ingresar un rut válido y correcto
+5: Ingresar un nombre válido
+6: Ingresar Apellido Paterno válido
+7: Ingresar Apellido Materno válido
+8: Ingresar un email válido y correcto
+9: Ingresar un teléfono válido
+10: Ingresar una dirección válida
+11: Hacer click en el botón "Aceptar"</t>
+  </si>
+  <si>
+    <t>2. Lector</t>
+  </si>
+  <si>
+    <t>Agregar Lector</t>
+  </si>
+  <si>
+    <t>Modificar Lector</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>Modificar Nombre de Lector</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la fila correspondiente al lector que se desea modificar hacer click al botón "Modificar"
+4: Borrar el nombre del lector
+5: Ingresar un nombre válido
+6: Click en "Aceptar"
+7: Confirmar cambios</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado con éxito"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El nombre del lector se modifica en la base de datos y se muestra en la tabla de lectores en el sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado con éxito"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Los nuevos datos se muestran en la tabla.</t>
+    </r>
+  </si>
+  <si>
+    <t>Modificar Apellido Paterno de Lector</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>Modificar Apellido Materno de Lector</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la fila correspondiente al lector que se desea modificar hacer click al botón "Modificar"
+4: Borrar el nombre del lector
+5: Ingresar un apellido materno válido
+6: Click en "Aceptar"
+7: Confirmar cambios</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>Modificar Dirección de Lector</t>
+  </si>
+  <si>
+    <t>Modificar Comentario Materno de Lector</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la fila correspondiente al lector que se desea modificar hacer click al botón "Modificar"
+4: Borrar el Apellido Paternno del lector
+5: Ingresar un apellido paterno válido
+6: Click en "Aceptar"
+7: Confirmar cambios</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la fila correspondiente al lector que se desea modificar hacer click al botón "Modificar"
+4: Borrar el Apellido Materno del lector
+5: Ingresar un apellido materno válido
+6: Click en "Aceptar"
+7: Confirmar cambios</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la fila correspondiente al lector que se desea modificar hacer click al botón "Modificar"
+4: Borrar el email del lector
+5: Ingresar un email válido
+6: Click en "Aceptar"
+7: Confirmar cambios</t>
+  </si>
+  <si>
+    <t>Modificar email de Lector con un email no válido</t>
+  </si>
+  <si>
+    <t>Modificar email de Lector con un email válido</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la fila correspondiente al lector que se desea modificar hacer click al botón "Modificar"
+4: Borrar el email del lector
+5: Ingresar un email no válido
+6: Click en "Aceptar"
+7: Confirmar cambios</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado con éxito"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El Apellido Paterno del lector se modifica en la base de datos y se muestra en la tabla de lectores en el sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado con éxito"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El Apellido Materno del lector se modifica en la base de datos y se muestra en la tabla de lectores en el sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado con éxito"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El email del lector se modifica en la base de datos y se muestra en la tabla de lectores en el sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Ingrese un email válido".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> El sisteme debe permitir volver a ingresar un email. No hay cambios en la base de datos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Ingresar email válido"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema acepta cualquier texto, incluso vacío, así que acepta cualquier texto como email.</t>
+  </si>
+  <si>
+    <t>El sistema acepta cualquier texto, incluso vacío, así que no da error en ningún caso, ya que el rut es el único atributo que necesitamos</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>Modificar Teléfono de Lector con un teléfono válido</t>
+  </si>
+  <si>
+    <t>Modificar Teléfono de Lector con un teléfono no válido</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la fila correspondiente al lector que se desea modificar hacer click al botón "Modificar"
+4: Borrar el teléfono del lector
+5: Ingresar un teléfono válido
+6: Click en "Aceptar"
+7: Confirmar cambios</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la fila correspondiente al lector que se desea modificar hacer click al botón "Modificar"
+4: Borrar el teléfono del lector
+5: Ingresar un teléfono no válido
+6: Click en "Aceptar"
+7: Confirmar cambios</t>
+  </si>
+  <si>
+    <t>El sistema acepta cualquier texto, incluso vacío, así que acepta cualquier texto como teléfono.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Ingrese un teléfono válido".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> El sisteme debe permitir volver a ingresar un email. No hay cambios en la base de datos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Ingresar teléfono válido"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Cambiar estado del Lector</t>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la columna del lector que se desea deshabilitar hacer click en el check box de la columna "Habilitado"
+4: Confirmar la operación</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>Cambiar estado de un lector de habilitado a no habilitado</t>
+  </si>
+  <si>
+    <t>Cambiar estado de un lector de no habilitado a habilitado</t>
+  </si>
+  <si>
+    <t>Cancelar la operación de cambio de estado</t>
+  </si>
+  <si>
+    <t>Datos de prueba. Tener lectores con estado habilitado</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El estado del lector se modifica en la base de datos y se muestra en la tabla de lectores con el check box sin marcar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado con éxito"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El teléfono del lector se modifica en la base de datos y se muestra en la tabla de lectores en el sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado con éxito"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. La dirección del lector se modifica en la base de datos y se muestra en la tabla de lectores en el sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado con éxito"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El comentario del lector se modifica en la base de datos y se muestra en la tabla de lectores en el sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Modificado exitosamente". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>El check box se desmarca en la tabla de lectores.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Modificado exitosamente". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>El check box se marca en la tabla de lectores.</t>
+    </r>
+  </si>
+  <si>
+    <t>Datos de prueba. Tener lectores con estado no habilitado</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana de aviso con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Modificado exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El estado del lector se modifica en la base de datos y se muestra en la tabla de lectores con el check box marcado</t>
+    </r>
+  </si>
+  <si>
+    <t>1: En el menú lateral seleccionar "Usuarios"
+2: Hacer click en el botón "Lector"
+3: En la columna del lector que se desea deshabilitar hacer click en el check box de la columna "Habilitado"
+4: Cancelar la operación</t>
+  </si>
+  <si>
+    <t>Se cancela la operación. No hay cambios en la base de datos ni en la tabla de lectores</t>
+  </si>
+  <si>
+    <t>No hay cambios</t>
+  </si>
+  <si>
+    <t>El check box en la tabla de lectores cambia.</t>
+  </si>
+  <si>
+    <t>A pesar de haber cancelado la operación el estado del lector cambia.</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>Ingresar un duplicado de un libro (ISBN ya existente en la base de datos)</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema como administrador
+2: En el panel izquierdo hacer click en "Libros"
+3: Hacer click en el botón "Nuevo Libro"
+4: Ingresar un ISBN válido y correcto que ya exista en la base de datos
+5: Ingresar el nombre del autor del libro, cualquiera
+6: Ingresar el año de publicación, cualquiera
+7: Ingresar el código Dewey del libro, cualquiera
+8: Ingresar el Título del libro, cualquiera
+9: Ingresar la edición del libro, cualquiera
+10: Hacer click en "Guardar"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se agrega el libro a la base de datos. También se agrega la primera copia a la base de datos. Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Libro registrado exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Copia registrada exitosamente".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Libro registrado exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Copia registrada exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Se muestra el libro en la tabla de libros</t>
+    </r>
+  </si>
+  <si>
+    <t>No hay cambios en la base de datos, no se agregan libros ni copias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"El libro ya existe"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El sistema debe permitir volver a la ventana para editar los datos ingresados</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"El libro ya existe"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Copia registrada exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. No se agrega el libro, pero se agrega una copia con los datos del primer libro agregado con ese ISBN</t>
+    </r>
+  </si>
+  <si>
+    <t>Ingresar un libro con código Dewey fuera de rango</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema como administrador
+2: En el panel izquierdo hacer click en "Libros"
+3: Hacer click en el botón "Nuevo Libro"
+4: Ingresar un ISBN válido y correcto
+5: Ingresar el nombre del autor del libro, cualquiera
+6: Ingresar el año de publicación, cualquiera
+7: Ingresar un código Dewey del libro fuera del rango (1 - 999)
+8: Ingresar el Título del libro, cualquiera
+9: Ingresar la edición del libro, cualquiera
+10: Hacer click en "Guardar"</t>
+  </si>
+  <si>
+    <t>No hay cambios en la base de datos, no se agregan libros ni copias hasta que se ingrese un código Dewey válido</t>
+  </si>
+  <si>
+    <t>No es posible ingresar un número de 3 dígitos, símbolos ni letras.</t>
+  </si>
+  <si>
+    <t>No se debe agregar copia ni libro cuando el isbn ya existe en la base de datos</t>
+  </si>
+  <si>
+    <t>Modificar Libro</t>
+  </si>
+  <si>
+    <t>Modificar el ISBN del un libro</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema como administrador
+2: En el panel izquierdo hacer click en "Libros"
+3: Hacer click en el botón "Lista de Libros"
+4: Hacer click en el botón "Modificar" en la fila del libro que se desea modificar.
+5: Modificar el ISBN del libro
+6: Hacer click en el botón "Guardar"
+7: Confirmar el cambio de los datos</t>
+  </si>
+  <si>
+    <t>No hay cambios en la base de datos, no se permite el cambio del ISBN, ya que es el atributo clave para el libro.</t>
+  </si>
+  <si>
+    <t>No es posible cambiar el valor del atributo</t>
+  </si>
+  <si>
+    <t>Modificar código Dewey del un libro por una valor fuera del rango</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema como administrador
+2: En el panel izquierdo hacer click en "Libros"
+3: Hacer click en el botón "Lista de Libros"
+4: Hacer click en el botón "Modificar" en la fila del libro que se desea modificar.
+5: Ingresar un código Dewey del libro fuera del rango (1 - 999)
+6: Hacer click en el botón "Guardar"
+7: Confirmar el cambio de los datos</t>
+  </si>
+  <si>
+    <t>Modificar los atributos de los libros con datos correctos y válidos</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema como administrador
+2: En el panel izquierdo hacer click en "Libros"
+3: Hacer click en el botón "Lista de Libros"
+4: Hacer click en el botón "Modificar" en la fila del libro que se desea modificar.
+5: Modificar el título del libro
+6: Modificar Edición del libro
+7: Modificar Autor del libro
+8: Modificar Año publicación del libro
+9: Modificar Código Dewey del libro
+10: Hacer click en el botón "Guardar"
+11: Confirmar los cambios</t>
+  </si>
+  <si>
+    <t>Se modifican los dato en la base de datos, se muestran los cambios en la tabla de la lista de libros</t>
+  </si>
+  <si>
+    <t>Se muestran los cambios en la tabla de lista de libros</t>
+  </si>
+  <si>
+    <t>4. Copias</t>
+  </si>
+  <si>
+    <t>Agregar Copia</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>No hay validación del campo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una ventana emergente con el mensaje: "Ingresar email válido". </t>
+  </si>
+  <si>
+    <t>Campo no validado</t>
+  </si>
+  <si>
+    <t>Cambiar estado de un Lector</t>
+  </si>
+  <si>
+    <t>Agregar una copia de un libro existente</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema
+2: En el panel izquierdo hacer click en "Libros"
+3: Hacer click en el botón "Lista de Libros"
+4: En la fila del libro que se desea agregar una copia hacer click en el botón "Ver detalle"
+5: Hacer click en el botón "Agregar copia"
+6: Seleccionar el estado en el que se desea agregar
+7: Hacer click en el botón "Guardar"</t>
+  </si>
+  <si>
+    <t>Se agrega una copia a del libro a la base de datos, conservando lo atributos del libro el sistema le asigna los nuevos atributos, execepto el estado que es asignado por el trabajador</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Copia agregada exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Se muestra la copia en la tabla de copias del libro</t>
+    </r>
+  </si>
+  <si>
+    <t>Modificar una copia de un libro existente</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema
+2: En el panel izquierdo hacer click en "Libros"
+3: Hacer click en el botón "Lista de Libros"
+4: En la fila del libro que se desea agregar una copia hacer click en el botón "Ver detalle"
+5: Hacer click en el botón "Click aquí" en la columna Modificar
+6: Seleccionar el estante entre las opciones
+7: Seleccionar el nivel del estante
+8: Hacer click en el botón "Guardar"</t>
+  </si>
+  <si>
+    <t>Se modifica en la base de datos el estante y el nivel. Se muestra en la tabla de copias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Copia modificada exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Se muestra la copia con los nuevos datos en la tabla de copias del libro</t>
+    </r>
+  </si>
+  <si>
+    <t>Cambiar estado de una copia</t>
+  </si>
+  <si>
+    <t>Modificar el estado de una copia</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema
+2: En el panel izquierdo hacer click en "Libros"
+3: Hacer click en el botón "Lista de Libros"
+4: En la fila del libro que se desea agregar una copia hacer click en el botón "Ver detalle"
+5: En la fila de la copia que se desea modificar, seleccionar una opcion en la columna Estado</t>
+  </si>
+  <si>
+    <t>5. Estantes</t>
+  </si>
+  <si>
+    <t>Crear Estante</t>
+  </si>
+  <si>
+    <t>Crear un estante con datos correctos</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema
+2: En el panel izquierdo hacer click en "Estantes"
+3: Hacer click en "Crear estante"
+4: Ingresar un número de estante (entre 1-999)
+5: Ingresar cantidad de niveles (entre 1-999)
+6: Ingresar Dewey inferior entre (1-999)
+7: Ingresar Dewey superior (hasta 999)
+8: Hacer click en guardar</t>
+  </si>
+  <si>
+    <t>Haber ingresado como administrador o como bibliotecario</t>
+  </si>
+  <si>
+    <t>Se agrega un estante a la base de datos. Se muestra en la tabla con la lista de estantes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Estado cambiado exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Se muestra la copia con los nuevos datos en la tabla de copias del libro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Estante registrado exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El estante se muestra en la lista de estantes</t>
+    </r>
+  </si>
+  <si>
+    <t>Crear un estante con el rango Dewey invertido</t>
+  </si>
+  <si>
+    <t>El sistema da un aviso que los rangos no corresponden. No hay cambios en la base de datos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Los rangos de los estantes no son válidos. El rango superior debe ser mayor al inferior"</t>
+    </r>
+  </si>
+  <si>
+    <t>Los campos de texto sólo aceptan números de no más de 3 dígitos</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema
+2: En el panel izquierdo hacer click en "Estantes"
+3: Hacer click en "Crear estante"
+4: Ingresar un número de estante (entre 1-999)
+5: Ingresar cantidad de niveles (entre 0-999)
+6: Ingresar Dewey inferior entre (2-999)
+7: Ingresar Dewey superior (menor al Dewey inferior)
+8: Hacer click en guardar</t>
+  </si>
+  <si>
+    <t>Modificar Estante</t>
+  </si>
+  <si>
+    <t>Agregar un nivel a un estante</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema
+2: En el panel izquierdo hacer click en "Estantes"
+3: Hacer click en "Listar estante"
+4: Hacer click en el botón "Modificar" en la fila del etante que se desea modificar
+5: Hacer click en el botón "+" para agregar un nivel</t>
+  </si>
+  <si>
+    <t>El sistema modifica la base de datos y agrega un nivel al estante. Los datos se muestran en la lista de estantes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Nivel creado exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Se muestran los datos en la tabla de estantes</t>
+    </r>
+  </si>
+  <si>
+    <t>Eliminar un nivel a un estante</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una ventana emergente con el mensaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Nivel eliminado exitosamente"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Se muestran los datos en la tabla de estantes</t>
+    </r>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>Eliminar un nivel a un estante cuando el estante tiene 0 niveles</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema
+2: En el panel izquierdo hacer click en "Estantes"
+3: Hacer click en "Listar estante"
+4: Hacer click en el botón "Modificar" en la fila del etante que se desea modificar
+5: Hacer click en el botón "-" para eliminar un nivel</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema
+2: En el panel izquierdo hacer click en "Estantes"
+3: Hacer click en "Listar estante"
+4: Hacer click en el botón "Modificar" en la fila del etante que se desea modificar
+5: Hacer click en el botón "-" para eliminar un nivel hasta llegar a 0
+6: Hacer click en el botón "-" una vez más</t>
+  </si>
+  <si>
+    <t>El sistema no debe permitir eliminar más niveles cuando se ha llegado a 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al llegar a 0 niveles el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"-"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> se desactiva</t>
+    </r>
+  </si>
+  <si>
+    <t>El contador sigue disminuyendo (números negativos), aunque en la base de datos no baja de 0 niveles</t>
+  </si>
+  <si>
+    <t>Crear Préstamo</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>5. Recuperar Contraseña</t>
+  </si>
+  <si>
+    <t>Recuperar una contraseña</t>
+  </si>
+  <si>
+    <t>1: En la ventana de login hacer click en el botón "Olvidé mi contraseña"
+2: Ingresar el email de la cuenta registrada que desea recuperar su contraseña
+3: Hacer click en el botón "Aceptar"</t>
+  </si>
+  <si>
+    <t>Se modifica en la base de datos la contraseña de la cuenta con ese email por una contraseña generada aleatoriamente. El sistema envía un correo electrónico al email ingresado con una contraseña generada</t>
+  </si>
+  <si>
+    <t>Se envía un correo electrónico al email ingresado con la contraseña generada aleatoriamente</t>
+  </si>
+  <si>
+    <t>6. Cerrar sesión</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>1: Ingresar al sistema
+2: En la ventana principal hacer click en "Cerrar sesión"
+3: Hacer click en el botón "Aceptar"</t>
+  </si>
+  <si>
+    <t>Se cierra la sesión y se vuelve a la ventana de log in</t>
+  </si>
+  <si>
+    <t>Se cierra la sesión</t>
+  </si>
+  <si>
+    <t>7. Préstamos</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>TC47</t>
+  </si>
+  <si>
+    <t>TC48</t>
+  </si>
+  <si>
+    <t>TC49</t>
+  </si>
+  <si>
+    <t>TC50</t>
+  </si>
+  <si>
+    <t>TC51</t>
+  </si>
+  <si>
+    <t>TC52</t>
+  </si>
+  <si>
+    <t>TC53</t>
+  </si>
+  <si>
+    <t>TC54</t>
+  </si>
+  <si>
+    <t>TC55</t>
+  </si>
+  <si>
+    <t>TC56</t>
+  </si>
+  <si>
+    <t>TC57</t>
+  </si>
+  <si>
+    <t>TC58</t>
   </si>
 </sst>
 </file>
@@ -637,7 +2042,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,12 +2129,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -787,7 +2186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1097,13 +2496,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1296,19 +2704,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="9" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1326,116 +2727,260 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4016,41 +5561,43 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="780" activePane="bottomLeft"/>
+      <selection activeCell="O9" sqref="A9:XFD10"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="18" style="81" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="81" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="81" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="81" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="81" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="81"/>
-    <col min="8" max="8" width="8.5703125" style="81" customWidth="1"/>
-    <col min="9" max="9" width="6" style="81" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="81" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="81" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="84" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="85" customWidth="1"/>
-    <col min="15" max="16384" width="10.28515625" style="81"/>
+    <col min="1" max="1" width="18" style="78" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="79" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="78" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="78" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="78" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="78" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="78"/>
+    <col min="8" max="8" width="7.140625" style="78" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="78" customWidth="1"/>
+    <col min="10" max="10" width="22" style="78" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="78" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="105" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="82" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="82" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -4062,12 +5609,12 @@
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -4092,9 +5639,9 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
     </row>
@@ -4113,9 +5660,9 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
       <c r="N4" s="12"/>
       <c r="O4" s="13"/>
     </row>
@@ -4134,9 +5681,9 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
       <c r="N5" s="27"/>
       <c r="O5" s="28"/>
     </row>
@@ -4155,9 +5702,9 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
     </row>
@@ -4176,125 +5723,125 @@
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
       <c r="N7" s="12"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="98" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="98" t="s">
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="100" t="s">
+      <c r="K9" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="102" t="s">
+      <c r="L9" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="102" t="s">
+      <c r="M9" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="102" t="s">
+      <c r="N9" s="152" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="43"/>
     </row>
     <row r="10" spans="1:15" s="46" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="152"/>
       <c r="O10" s="45"/>
     </row>
     <row r="11" spans="1:15" s="48" customFormat="1" ht="15">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
       <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:15" s="50" customFormat="1" ht="12.75">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:15" s="50" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -4303,8 +5850,8 @@
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
       <c r="N13" s="53"/>
     </row>
     <row r="14" spans="1:15" s="50" customFormat="1" ht="63.75" outlineLevel="1">
@@ -4317,18 +5864,18 @@
       <c r="C14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="95"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="56" t="s">
         <v>28</v>
       </c>
@@ -4339,7 +5886,7 @@
         <v>29</v>
       </c>
       <c r="M14" s="60"/>
-      <c r="N14" s="60" t="s">
+      <c r="N14" s="101" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4353,18 +5900,18 @@
       <c r="C15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="95"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="56" t="s">
         <v>34</v>
       </c>
@@ -4375,7 +5922,7 @@
         <v>29</v>
       </c>
       <c r="M15" s="60"/>
-      <c r="N15" s="60" t="s">
+      <c r="N15" s="101" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4389,18 +5936,18 @@
       <c r="C16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="95"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="56" t="s">
         <v>34</v>
       </c>
@@ -4411,7 +5958,7 @@
         <v>29</v>
       </c>
       <c r="M16" s="60"/>
-      <c r="N16" s="60" t="s">
+      <c r="N16" s="101" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4425,18 +5972,18 @@
       <c r="C17" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="95"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
       <c r="J17" s="56" t="s">
         <v>34</v>
       </c>
@@ -4447,11 +5994,11 @@
         <v>29</v>
       </c>
       <c r="M17" s="60"/>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="50" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="18" spans="1:14" s="50" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A18" s="54" t="s">
         <v>39</v>
       </c>
@@ -4461,18 +6008,18 @@
       <c r="C18" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="95"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
       <c r="J18" s="56" t="s">
         <v>41</v>
       </c>
@@ -4481,9 +6028,9 @@
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-    </row>
-    <row r="19" spans="1:14" s="50" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="N18" s="101"/>
+    </row>
+    <row r="19" spans="1:14" s="50" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A19" s="54" t="s">
         <v>42</v>
       </c>
@@ -4493,18 +6040,18 @@
       <c r="C19" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="95"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
       <c r="J19" s="56" t="s">
         <v>41</v>
       </c>
@@ -4515,16 +6062,16 @@
         <v>29</v>
       </c>
       <c r="M19" s="60"/>
-      <c r="N19" s="60" t="s">
+      <c r="N19" s="101" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="50" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
       <c r="F20" s="51"/>
@@ -4533,8 +6080,8 @@
       <c r="I20" s="52"/>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
       <c r="N20" s="53"/>
     </row>
     <row r="21" spans="1:14" s="50" customFormat="1" ht="51" outlineLevel="1">
@@ -4547,18 +6094,18 @@
       <c r="C21" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="95"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="90" t="s">
+      <c r="G21" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
       <c r="J21" s="56" t="s">
         <v>28</v>
       </c>
@@ -4571,7 +6118,7 @@
       <c r="M21" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="60" t="s">
+      <c r="N21" s="101" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4585,18 +6132,18 @@
       <c r="C22" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="95"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
+        <v>73</v>
+      </c>
+      <c r="G22" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
       <c r="J22" s="56" t="s">
         <v>34</v>
       </c>
@@ -4607,7 +6154,7 @@
         <v>29</v>
       </c>
       <c r="M22" s="60"/>
-      <c r="N22" s="60" t="s">
+      <c r="N22" s="101" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4621,18 +6168,18 @@
       <c r="C23" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="90" t="s">
+      <c r="D23" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="95"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
       <c r="J23" s="56" t="s">
         <v>34</v>
       </c>
@@ -4643,7 +6190,7 @@
         <v>29</v>
       </c>
       <c r="M23" s="60"/>
-      <c r="N23" s="60" t="s">
+      <c r="N23" s="101" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4657,18 +6204,18 @@
       <c r="C24" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="95"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
       <c r="J24" s="56" t="s">
         <v>34</v>
       </c>
@@ -4679,11 +6226,11 @@
         <v>29</v>
       </c>
       <c r="M24" s="60"/>
-      <c r="N24" s="60" t="s">
+      <c r="N24" s="101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="50" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="25" spans="1:14" s="50" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A25" s="54" t="s">
         <v>55</v>
       </c>
@@ -4693,18 +6240,18 @@
       <c r="C25" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="95"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
       <c r="J25" s="56" t="s">
         <v>41</v>
       </c>
@@ -4715,11 +6262,11 @@
         <v>29</v>
       </c>
       <c r="M25" s="60"/>
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="50" customFormat="1" ht="76.5" outlineLevel="1">
+    <row r="26" spans="1:14" s="50" customFormat="1" ht="63.75" outlineLevel="1">
       <c r="A26" s="54" t="s">
         <v>56</v>
       </c>
@@ -4729,18 +6276,18 @@
       <c r="C26" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="90" t="s">
+      <c r="D26" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="95"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
       <c r="J26" s="56" t="s">
         <v>41</v>
       </c>
@@ -4751,625 +6298,1941 @@
         <v>29</v>
       </c>
       <c r="M26" s="60"/>
-      <c r="N26" s="60" t="s">
+      <c r="N26" s="101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="50" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A27" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="53"/>
-    </row>
-    <row r="28" spans="1:14" s="50" customFormat="1" ht="127.5" outlineLevel="1">
-      <c r="A28" s="54" t="s">
+    <row r="27" spans="1:14" s="50" customFormat="1" ht="12.75">
+      <c r="A27" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="49"/>
+    </row>
+    <row r="28" spans="1:14" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A28" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="53"/>
+    </row>
+    <row r="29" spans="1:14" s="50" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A29" s="54" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="87">
-        <v>43236</v>
-      </c>
-      <c r="L28" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="50" customFormat="1" ht="127.5" outlineLevel="1">
-      <c r="A29" s="54" t="s">
-        <v>58</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="124"/>
+      <c r="F29" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L29" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="60"/>
+      <c r="N29" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="50" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A30" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="124"/>
+      <c r="F30" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="95"/>
-      <c r="F29" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="87">
-        <v>43236</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="N29" s="60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="50" customFormat="1" ht="127.5" outlineLevel="1">
-      <c r="A30" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" s="87">
-        <v>43236</v>
+      <c r="K30" s="58">
+        <v>43242</v>
       </c>
       <c r="L30" s="61" t="s">
         <v>49</v>
       </c>
       <c r="M30" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="50" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A31" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="N30" s="60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="50" customFormat="1" ht="127.5" outlineLevel="1">
-      <c r="A31" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>72</v>
-      </c>
       <c r="C31" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="124"/>
+      <c r="F31" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" s="87">
-        <v>43236</v>
+      <c r="K31" s="58">
+        <v>43242</v>
       </c>
       <c r="L31" s="61" t="s">
         <v>49</v>
       </c>
       <c r="M31" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="N31" s="101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="50" customFormat="1" ht="12.75">
-      <c r="A32" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="53"/>
-    </row>
-    <row r="33" spans="1:18" s="70" customFormat="1" ht="228.75" customHeight="1" outlineLevel="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="63"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-    </row>
-    <row r="34" spans="1:18" s="70" customFormat="1" ht="207.75" customHeight="1" outlineLevel="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-    </row>
-    <row r="35" spans="1:18" s="70" customFormat="1" ht="255" customHeight="1" outlineLevel="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-    </row>
-    <row r="36" spans="1:18" s="70" customFormat="1" ht="276.75" customHeight="1" outlineLevel="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-    </row>
-    <row r="37" spans="1:18" s="50" customFormat="1" ht="12.75">
-      <c r="A37" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="49"/>
-    </row>
-    <row r="38" spans="1:18" s="50" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A38" s="91"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="53"/>
-    </row>
-    <row r="39" spans="1:18" s="70" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
-      <c r="A39" s="54"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-    </row>
-    <row r="40" spans="1:18" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A40" s="54"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-    </row>
-    <row r="41" spans="1:18" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-    </row>
-    <row r="42" spans="1:18" s="70" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-    </row>
-    <row r="43" spans="1:18" s="70" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="54"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-    </row>
-    <row r="44" spans="1:18" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-    </row>
-    <row r="45" spans="1:18" s="70" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A45" s="54"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-    </row>
-    <row r="46" spans="1:18" s="50" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A46" s="91"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="53"/>
-    </row>
-    <row r="47" spans="1:18" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-    </row>
-    <row r="48" spans="1:18" s="50" customFormat="1" ht="12.75">
-      <c r="A48" s="91" t="s">
+    <row r="32" spans="1:14" s="50" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A32" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="124"/>
+      <c r="F32" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L32" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A33" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="53"/>
+    </row>
+    <row r="34" spans="1:14" s="50" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A34" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="124"/>
+      <c r="F34" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L34" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="50" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A35" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="124"/>
+      <c r="F35" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="159"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L35" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="50" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A36" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="124"/>
+      <c r="F36" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="50" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A37" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="124"/>
+      <c r="F37" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="159"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L37" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="60"/>
+      <c r="N37" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="50" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A38" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="124"/>
+      <c r="F38" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="159"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L38" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="N38" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="50" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A39" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="124"/>
+      <c r="F39" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="159"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L39" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="60"/>
+      <c r="N39" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="50" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A40" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="124"/>
+      <c r="F40" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="157" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="159"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L40" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="N40" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="50" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A41" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="124"/>
+      <c r="F41" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="159"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L41" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="60"/>
+      <c r="N41" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="50" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A42" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="124"/>
+      <c r="F42" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="159"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L42" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="60"/>
+      <c r="N42" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A43" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="53"/>
+    </row>
+    <row r="44" spans="1:14" s="50" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A44" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="124"/>
+      <c r="F44" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="157" t="s">
+        <v>148</v>
+      </c>
+      <c r="H44" s="159"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="K44" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L44" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="60"/>
+      <c r="N44" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="50" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A45" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="124"/>
+      <c r="F45" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="157" t="s">
+        <v>148</v>
+      </c>
+      <c r="H45" s="159"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L45" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="60"/>
+      <c r="N45" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="50" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A46" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="124"/>
+      <c r="F46" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="159"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" s="58">
+        <v>43242</v>
+      </c>
+      <c r="L46" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="N46" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="50" customFormat="1" ht="12.75">
+      <c r="A47" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="49"/>
+    </row>
+    <row r="48" spans="1:14" s="50" customFormat="1" ht="12.75">
+      <c r="A48" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
       <c r="N48" s="53"/>
     </row>
-    <row r="49" spans="1:14" s="70" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A49" s="54"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="79"/>
+    <row r="49" spans="1:18" s="70" customFormat="1" ht="127.5" outlineLevel="1">
+      <c r="A49" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="124"/>
+      <c r="F49" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" s="158"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="K49" s="58">
+        <v>43245</v>
+      </c>
+      <c r="L49" s="96" t="s">
+        <v>29</v>
+      </c>
       <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-    </row>
-    <row r="50" spans="1:14" s="70" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A50" s="54"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-    </row>
-    <row r="51" spans="1:14" s="70" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-    </row>
-    <row r="52" spans="1:14" s="50" customFormat="1" ht="12.75">
-      <c r="A52" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
+      <c r="N49" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="70" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A50" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="124"/>
+      <c r="F50" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" s="123"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="K50" s="58">
+        <v>43245</v>
+      </c>
+      <c r="L50" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M50" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="N50" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+    </row>
+    <row r="51" spans="1:18" s="70" customFormat="1" ht="140.25" outlineLevel="1">
+      <c r="A51" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="124"/>
+      <c r="F51" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="G51" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="123"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="K51" s="58">
+        <v>43245</v>
+      </c>
+      <c r="L51" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="72"/>
+      <c r="N51" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+    </row>
+    <row r="52" spans="1:18" s="50" customFormat="1" ht="12.75">
+      <c r="A52" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="104"/>
       <c r="N52" s="53"/>
     </row>
-    <row r="53" spans="1:14" s="70" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A53" s="123"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-    </row>
-    <row r="54" spans="1:14" s="70" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-    </row>
-    <row r="55" spans="1:14" s="70" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A55" s="54"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-    </row>
-    <row r="56" spans="1:14" ht="12" customHeight="1"/>
-    <row r="57" spans="1:14" ht="12" customHeight="1"/>
-    <row r="58" spans="1:14" ht="12" customHeight="1"/>
-    <row r="59" spans="1:14" ht="12" customHeight="1"/>
-    <row r="60" spans="1:14" ht="12" customHeight="1"/>
-    <row r="61" spans="1:14" ht="12" customHeight="1"/>
-    <row r="62" spans="1:14" ht="12" customHeight="1"/>
-    <row r="63" spans="1:14" ht="12" customHeight="1"/>
-    <row r="64" spans="1:14" ht="12" customHeight="1"/>
-    <row r="65" ht="12" customHeight="1"/>
-    <row r="66" ht="12" customHeight="1"/>
-    <row r="67" ht="12" customHeight="1"/>
-    <row r="68" ht="12" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
-    <row r="73" ht="12" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
-    <row r="82" ht="12" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
-    <row r="84" ht="12" customHeight="1"/>
-    <row r="85" ht="12" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="12" customHeight="1"/>
-    <row r="88" ht="12" customHeight="1"/>
-    <row r="89" ht="12" customHeight="1"/>
-    <row r="90" ht="12" customHeight="1"/>
-    <row r="91" ht="12" customHeight="1"/>
-    <row r="92" ht="12" customHeight="1"/>
-    <row r="93" ht="12" customHeight="1"/>
+    <row r="53" spans="1:18" s="70" customFormat="1" ht="153" outlineLevel="1">
+      <c r="A53" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="124"/>
+      <c r="F53" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" s="123"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="K53" s="58">
+        <v>43245</v>
+      </c>
+      <c r="L53" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="72"/>
+      <c r="N53" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+    </row>
+    <row r="54" spans="1:18" s="70" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A54" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="91" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="124"/>
+      <c r="F54" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="H54" s="123"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="K54" s="58">
+        <v>43245</v>
+      </c>
+      <c r="L54" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="72"/>
+      <c r="N54" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+    </row>
+    <row r="55" spans="1:18" s="70" customFormat="1" ht="114.75" outlineLevel="1">
+      <c r="A55" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="124"/>
+      <c r="F55" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" s="123"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="K55" s="58">
+        <v>43245</v>
+      </c>
+      <c r="L55" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="72"/>
+      <c r="N55" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+    </row>
+    <row r="56" spans="1:18" s="50" customFormat="1" ht="12.75">
+      <c r="A56" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="49"/>
+    </row>
+    <row r="57" spans="1:18" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A57" s="125" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="126"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="53"/>
+    </row>
+    <row r="58" spans="1:18" s="70" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A58" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="124"/>
+      <c r="F58" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="G58" s="122" t="s">
+        <v>202</v>
+      </c>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="K58" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L58" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="65"/>
+      <c r="N58" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A59" s="125" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="53"/>
+    </row>
+    <row r="60" spans="1:18" s="70" customFormat="1" ht="127.5" outlineLevel="1">
+      <c r="A60" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="124"/>
+      <c r="F60" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" s="123"/>
+      <c r="I60" s="123"/>
+      <c r="J60" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="K60" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L60" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="65"/>
+      <c r="N60" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A61" s="125" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="53"/>
+    </row>
+    <row r="62" spans="1:18" s="70" customFormat="1" ht="89.25" outlineLevel="1">
+      <c r="A62" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="124"/>
+      <c r="F62" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
+      <c r="J62" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="K62" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L62" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="65"/>
+      <c r="N62" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="50" customFormat="1" ht="12.75">
+      <c r="A63" s="130" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" s="131"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="131"/>
+      <c r="J63" s="131"/>
+      <c r="K63" s="131"/>
+      <c r="L63" s="131"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="49"/>
+    </row>
+    <row r="64" spans="1:18" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A64" s="125" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="53"/>
+    </row>
+    <row r="65" spans="1:14" s="70" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A65" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="135"/>
+      <c r="F65" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="G65" s="122" t="s">
+        <v>217</v>
+      </c>
+      <c r="H65" s="123"/>
+      <c r="I65" s="123"/>
+      <c r="J65" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="K65" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L65" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="N65" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="70" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A66" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="135"/>
+      <c r="F66" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="G66" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="K66" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L66" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="65"/>
+      <c r="N66" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A67" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="53"/>
+    </row>
+    <row r="68" spans="1:14" s="70" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A68" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="124"/>
+      <c r="F68" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" s="122" t="s">
+        <v>227</v>
+      </c>
+      <c r="H68" s="123"/>
+      <c r="I68" s="123"/>
+      <c r="J68" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="K68" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L68" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="65"/>
+      <c r="N68" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="70" customFormat="1" ht="76.5" outlineLevel="1">
+      <c r="A69" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="124"/>
+      <c r="F69" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="H69" s="123"/>
+      <c r="I69" s="123"/>
+      <c r="J69" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="K69" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L69" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="65"/>
+      <c r="N69" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A70" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="124"/>
+      <c r="F70" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" s="122" t="s">
+        <v>235</v>
+      </c>
+      <c r="H70" s="123"/>
+      <c r="I70" s="123"/>
+      <c r="J70" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="K70" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L70" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="M70" s="65"/>
+      <c r="N70" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="50" customFormat="1" ht="12.75">
+      <c r="A71" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="131"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="131"/>
+      <c r="E71" s="131"/>
+      <c r="F71" s="131"/>
+      <c r="G71" s="131"/>
+      <c r="H71" s="131"/>
+      <c r="I71" s="131"/>
+      <c r="J71" s="131"/>
+      <c r="K71" s="131"/>
+      <c r="L71" s="131"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="53"/>
+    </row>
+    <row r="72" spans="1:14" s="70" customFormat="1" ht="102" outlineLevel="1">
+      <c r="A72" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D72" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="133"/>
+      <c r="F72" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" s="122" t="s">
+        <v>243</v>
+      </c>
+      <c r="H72" s="123"/>
+      <c r="I72" s="123"/>
+      <c r="J72" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K72" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L72" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="106"/>
+      <c r="N72" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="50" customFormat="1" ht="12.75">
+      <c r="A73" s="130" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" s="131"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="131"/>
+      <c r="E73" s="131"/>
+      <c r="F73" s="131"/>
+      <c r="G73" s="131"/>
+      <c r="H73" s="131"/>
+      <c r="I73" s="131"/>
+      <c r="J73" s="131"/>
+      <c r="K73" s="131"/>
+      <c r="L73" s="131"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="53"/>
+    </row>
+    <row r="74" spans="1:14" s="70" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A74" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="93" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="133"/>
+      <c r="F74" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="G74" s="122" t="s">
+        <v>249</v>
+      </c>
+      <c r="H74" s="123"/>
+      <c r="I74" s="123"/>
+      <c r="J74" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="K74" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L74" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="106"/>
+      <c r="N74" s="101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="50" customFormat="1" ht="12.75">
+      <c r="A75" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" s="163"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
+      <c r="J75" s="163"/>
+      <c r="K75" s="163"/>
+      <c r="L75" s="163"/>
+      <c r="M75" s="163"/>
+      <c r="N75" s="49"/>
+    </row>
+    <row r="76" spans="1:14" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A76" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="90"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="90"/>
+      <c r="L76" s="90"/>
+      <c r="M76" s="90"/>
+      <c r="N76" s="53"/>
+    </row>
+    <row r="77" spans="1:14" s="70" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A77" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="122"/>
+      <c r="H77" s="123"/>
+      <c r="I77" s="123"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="65"/>
+      <c r="N77" s="102"/>
+    </row>
+    <row r="78" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A78" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="119"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="122"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="99"/>
+      <c r="K78" s="117"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="65"/>
+      <c r="N78" s="102"/>
+    </row>
+    <row r="79" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A79" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" s="89"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="119"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="122"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="123"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="117"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="65"/>
+      <c r="N79" s="102"/>
+    </row>
+    <row r="80" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A80" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="89"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="120"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="127"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="129"/>
+      <c r="J80" s="99"/>
+      <c r="K80" s="117"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="65"/>
+      <c r="N80" s="102"/>
+    </row>
+    <row r="81" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A81" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B81" s="89"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="120"/>
+      <c r="E81" s="121"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="128"/>
+      <c r="I81" s="129"/>
+      <c r="J81" s="99"/>
+      <c r="K81" s="117"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="65"/>
+      <c r="N81" s="102"/>
+    </row>
+    <row r="82" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A82" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82" s="89"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="120"/>
+      <c r="E82" s="121"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="128"/>
+      <c r="I82" s="129"/>
+      <c r="J82" s="99"/>
+      <c r="K82" s="117"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="102"/>
+    </row>
+    <row r="83" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A83" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="129"/>
+      <c r="J83" s="99"/>
+      <c r="K83" s="117"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="65"/>
+      <c r="N83" s="102"/>
+    </row>
+    <row r="84" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A84" s="89" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="89"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="120"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="129"/>
+      <c r="J84" s="99"/>
+      <c r="K84" s="117"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="102"/>
+    </row>
+    <row r="85" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A85" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" s="89"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="122"/>
+      <c r="H85" s="123"/>
+      <c r="I85" s="123"/>
+      <c r="J85" s="99"/>
+      <c r="K85" s="117"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="102"/>
+    </row>
+    <row r="86" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A86" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86" s="89"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="119"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="122"/>
+      <c r="H86" s="123"/>
+      <c r="I86" s="123"/>
+      <c r="J86" s="99"/>
+      <c r="K86" s="117"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="102"/>
+    </row>
+    <row r="87" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A87" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" s="89"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="121"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="122"/>
+      <c r="H87" s="123"/>
+      <c r="I87" s="124"/>
+      <c r="J87" s="99"/>
+      <c r="K87" s="117"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="65"/>
+      <c r="N87" s="102"/>
+    </row>
+    <row r="88" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A88" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="119"/>
+      <c r="E88" s="119"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="122"/>
+      <c r="H88" s="123"/>
+      <c r="I88" s="123"/>
+      <c r="J88" s="99"/>
+      <c r="K88" s="117"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="102"/>
+    </row>
+    <row r="89" spans="1:14" s="118" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A89" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89" s="66"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="135"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="122"/>
+      <c r="H89" s="123"/>
+      <c r="I89" s="123"/>
+      <c r="J89" s="99"/>
+      <c r="K89" s="117"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="102"/>
+    </row>
+    <row r="90" spans="1:14" s="118" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A90" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" s="66"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="161"/>
+      <c r="H90" s="123"/>
+      <c r="I90" s="123"/>
+      <c r="J90" s="99"/>
+      <c r="K90" s="117"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="102"/>
+    </row>
+    <row r="91" spans="1:14" ht="12" customHeight="1"/>
+    <row r="92" spans="1:14" ht="12" customHeight="1"/>
+    <row r="93" spans="1:14" ht="12" customHeight="1"/>
+    <row r="94" spans="1:14" ht="12" customHeight="1"/>
+    <row r="95" spans="1:14" ht="12" customHeight="1"/>
+    <row r="96" spans="1:14" ht="12" customHeight="1"/>
+    <row r="97" ht="12" customHeight="1"/>
+    <row r="98" ht="12" customHeight="1"/>
+    <row r="99" ht="12" customHeight="1"/>
+    <row r="100" ht="12" customHeight="1"/>
+    <row r="101" ht="12" customHeight="1"/>
+    <row r="102" ht="12" customHeight="1"/>
+    <row r="103" ht="12" customHeight="1"/>
+    <row r="104" ht="12" customHeight="1"/>
+    <row r="105" ht="12" customHeight="1"/>
+    <row r="106" ht="12" customHeight="1"/>
+    <row r="107" ht="12" customHeight="1"/>
+    <row r="108" ht="12" customHeight="1"/>
+    <row r="109" ht="12" customHeight="1"/>
+    <row r="110" ht="12" customHeight="1"/>
+    <row r="111" ht="12" customHeight="1"/>
+    <row r="112" ht="12" customHeight="1"/>
+    <row r="113" ht="12" customHeight="1"/>
+    <row r="114" ht="12" customHeight="1"/>
+    <row r="115" ht="12" customHeight="1"/>
+    <row r="116" ht="12" customHeight="1"/>
+    <row r="117" ht="12" customHeight="1"/>
+    <row r="118" ht="12" customHeight="1"/>
+    <row r="119" ht="12" customHeight="1"/>
+    <row r="120" ht="12" customHeight="1"/>
+    <row r="121" ht="12" customHeight="1"/>
+    <row r="122" ht="12" customHeight="1"/>
+    <row r="123" ht="12" customHeight="1"/>
+    <row r="124" ht="12" customHeight="1"/>
+    <row r="125" ht="12" customHeight="1"/>
+    <row r="126" ht="12" customHeight="1"/>
+    <row r="127" ht="12" customHeight="1"/>
+    <row r="128" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="156">
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="A75:M75"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="A56:M56"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A64:C64"/>
     <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:I34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A12:M12"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K6:M6"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:A10"/>
@@ -5382,79 +8245,29 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A52:M52"/>
-    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="D79:E79"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5467,41 +8280,43 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <pane ySplit="780" topLeftCell="A23" activePane="bottomLeft"/>
+      <selection activeCell="O9" sqref="A9:XFD10"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="18" style="81" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="81" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="81" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="81" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="81" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="81"/>
-    <col min="8" max="8" width="8.5703125" style="81" customWidth="1"/>
-    <col min="9" max="9" width="6" style="81" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="81" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="81" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="83" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="84" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="85" customWidth="1"/>
-    <col min="15" max="16384" width="10.28515625" style="81"/>
+    <col min="1" max="1" width="18" style="78" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="79" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="78" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="78" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="78" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="78" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="78"/>
+    <col min="8" max="8" width="8.5703125" style="78" customWidth="1"/>
+    <col min="9" max="9" width="6" style="78" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="78" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="78" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="81" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="82" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5513,12 +8328,12 @@
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -5543,9 +8358,9 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
     </row>
@@ -5564,9 +8379,9 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
       <c r="N4" s="12"/>
       <c r="O4" s="13"/>
     </row>
@@ -5585,9 +8400,9 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
       <c r="N5" s="27"/>
       <c r="O5" s="28"/>
     </row>
@@ -5606,9 +8421,9 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
     </row>
@@ -5627,20 +8442,20 @@
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
       <c r="N7" s="12"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -5651,101 +8466,101 @@
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="98" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="98" t="s">
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="100" t="s">
+      <c r="K9" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="102" t="s">
+      <c r="L9" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="102" t="s">
+      <c r="M9" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="102" t="s">
+      <c r="N9" s="141" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="43"/>
     </row>
     <row r="10" spans="1:15" s="46" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
       <c r="O10" s="45"/>
     </row>
     <row r="11" spans="1:15" s="48" customFormat="1" ht="15">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
       <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:15" s="50" customFormat="1" ht="12.75">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:15" s="50" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
       <c r="F13" s="51"/>
@@ -5768,30 +8583,38 @@
       <c r="C14" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="95"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="118"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>29</v>
+      </c>
       <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
+      <c r="N14" s="101" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:15" s="50" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -5809,281 +8632,402 @@
         <v>58</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="124"/>
+      <c r="F16" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
+      <c r="K16" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16" s="101" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:18" s="50" customFormat="1" ht="127.5" outlineLevel="1">
       <c r="A17" s="54" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="95"/>
+      <c r="D17" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="124"/>
       <c r="F17" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
+      <c r="G17" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="60"/>
+      <c r="N17" s="101" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:18" s="50" customFormat="1" ht="127.5" outlineLevel="1">
       <c r="A18" s="54" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="124"/>
+      <c r="F18" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
+      <c r="K18" s="58">
+        <v>43249</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="N18" s="101" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:18" s="50" customFormat="1" ht="12.75">
-      <c r="A19" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
+      <c r="A19" s="164" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
       <c r="N19" s="53"/>
     </row>
-    <row r="20" spans="1:18" s="70" customFormat="1" ht="228.75" customHeight="1" outlineLevel="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="63"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-    </row>
-    <row r="21" spans="1:18" s="70" customFormat="1" ht="207.75" customHeight="1" outlineLevel="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-    </row>
-    <row r="22" spans="1:18" s="70" customFormat="1" ht="255" customHeight="1" outlineLevel="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-    </row>
-    <row r="23" spans="1:18" s="70" customFormat="1" ht="276.75" customHeight="1" outlineLevel="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
+    <row r="20" spans="1:18" s="108" customFormat="1" ht="102">
+      <c r="A20" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="166" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="167"/>
+      <c r="F20" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="168" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="169"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="84">
+        <v>43249</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="113"/>
+      <c r="N20" s="114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="107" customFormat="1" ht="102">
+      <c r="A21" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="158"/>
+      <c r="F21" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="171" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="84">
+        <v>43249</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="N21" s="60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="50" customFormat="1" ht="12.75">
+      <c r="A22" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="53"/>
+    </row>
+    <row r="23" spans="1:18" s="70" customFormat="1" ht="63.75" outlineLevel="1">
+      <c r="A23" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="124"/>
+      <c r="F23" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="159"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="84">
+        <v>43249</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" s="101" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:18" s="50" customFormat="1" ht="12.75">
-      <c r="A24" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
+      <c r="A24" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
       <c r="N24" s="49"/>
     </row>
     <row r="25" spans="1:18" s="50" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
+      <c r="A25" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="53"/>
     </row>
-    <row r="26" spans="1:18" s="70" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-    </row>
-    <row r="27" spans="1:18" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-    </row>
-    <row r="28" spans="1:18" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-    </row>
-    <row r="29" spans="1:18" s="70" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:18" s="70" customFormat="1" ht="153" outlineLevel="1">
+      <c r="A26" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="124"/>
+      <c r="F26" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="84">
+        <v>43249</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="N26" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+    </row>
+    <row r="27" spans="1:18" s="50" customFormat="1" ht="12.75">
+      <c r="A27" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="49"/>
+    </row>
+    <row r="28" spans="1:18" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A28" s="130"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="53"/>
+    </row>
+    <row r="29" spans="1:18" s="70" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A29" s="54"/>
       <c r="B29" s="66"/>
       <c r="C29" s="67"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="135"/>
       <c r="F29" s="68"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
       <c r="J29" s="69"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="77"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="65"/>
       <c r="N29" s="65"/>
     </row>
-    <row r="30" spans="1:18" s="70" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="1:18" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A30" s="54"/>
       <c r="B30" s="66"/>
       <c r="C30" s="67"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="121"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="135"/>
       <c r="F30" s="68"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
       <c r="J30" s="69"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="77"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="74"/>
       <c r="M30" s="65"/>
       <c r="N30" s="65"/>
     </row>
@@ -6091,201 +9035,246 @@
       <c r="A31" s="54"/>
       <c r="B31" s="66"/>
       <c r="C31" s="67"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="121"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="68"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
       <c r="J31" s="69"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="77"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="74"/>
       <c r="M31" s="65"/>
       <c r="N31" s="65"/>
     </row>
-    <row r="32" spans="1:18" s="70" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:18" s="70" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="54"/>
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="121"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="68"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
       <c r="J32" s="69"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="77"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="74"/>
       <c r="M32" s="65"/>
       <c r="N32" s="65"/>
     </row>
-    <row r="33" spans="1:14" s="50" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A33" s="91"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="53"/>
+    <row r="33" spans="1:14" s="70" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
+      <c r="A33" s="54"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
     </row>
     <row r="34" spans="1:14" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A34" s="54"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="121"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="68"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
       <c r="J34" s="69"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="77"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="74"/>
       <c r="M34" s="65"/>
       <c r="N34" s="65"/>
     </row>
-    <row r="35" spans="1:14" s="50" customFormat="1" ht="12.75">
-      <c r="A35" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="53"/>
-    </row>
-    <row r="36" spans="1:14" s="70" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-    </row>
-    <row r="37" spans="1:14" s="70" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:14" s="70" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+      <c r="A35" s="54"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+    </row>
+    <row r="36" spans="1:14" s="50" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A36" s="130"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="53"/>
+    </row>
+    <row r="37" spans="1:14" s="70" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A37" s="54"/>
       <c r="B37" s="66"/>
       <c r="C37" s="67"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="121"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="135"/>
       <c r="F37" s="68"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
       <c r="J37" s="69"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="77"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="74"/>
       <c r="M37" s="65"/>
       <c r="N37" s="65"/>
     </row>
-    <row r="38" spans="1:14" s="70" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-    </row>
-    <row r="39" spans="1:14" s="50" customFormat="1" ht="12.75">
-      <c r="A39" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="53"/>
-    </row>
-    <row r="40" spans="1:14" s="70" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A40" s="123"/>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
+    <row r="38" spans="1:14" s="50" customFormat="1" ht="12.75">
+      <c r="A38" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="53"/>
+    </row>
+    <row r="39" spans="1:14" s="70" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A39" s="54"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+    </row>
+    <row r="40" spans="1:14" s="70" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
+      <c r="A40" s="54"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
       <c r="J40" s="69"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="77"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="74"/>
       <c r="M40" s="65"/>
       <c r="N40" s="65"/>
     </row>
-    <row r="41" spans="1:14" s="70" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+    <row r="41" spans="1:14" s="70" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
       <c r="A41" s="54"/>
       <c r="B41" s="66"/>
       <c r="C41" s="67"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="121"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="68"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
       <c r="J41" s="69"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="77"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="74"/>
       <c r="M41" s="65"/>
       <c r="N41" s="65"/>
     </row>
-    <row r="42" spans="1:14" s="70" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-    </row>
-    <row r="43" spans="1:14" ht="12" customHeight="1"/>
-    <row r="44" spans="1:14" ht="12" customHeight="1"/>
-    <row r="45" spans="1:14" ht="12" customHeight="1"/>
+    <row r="42" spans="1:14" s="50" customFormat="1" ht="12.75">
+      <c r="A42" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="53"/>
+    </row>
+    <row r="43" spans="1:14" s="70" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A43" s="88"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+    </row>
+    <row r="44" spans="1:14" s="70" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A44" s="54"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+    </row>
+    <row r="45" spans="1:14" s="70" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A45" s="54"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+    </row>
     <row r="46" spans="1:14" ht="12" customHeight="1"/>
     <row r="47" spans="1:14" ht="12" customHeight="1"/>
     <row r="48" spans="1:14" ht="12" customHeight="1"/>
@@ -6321,65 +9310,17 @@
     <row r="78" ht="12" customHeight="1"/>
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
+    <row r="81" ht="12" customHeight="1"/>
+    <row r="82" ht="12" customHeight="1"/>
+    <row r="83" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
+  <mergeCells count="75">
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A8:G8"/>
@@ -6389,12 +9330,66 @@
     <mergeCell ref="D9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:I10"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
